--- a/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
+++ b/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">

--- a/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
+++ b/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>site name</t>
+  </si>
+  <si>
+    <t>parameter name</t>
+  </si>
+  <si>
+    <t>trend period</t>
+  </si>
+  <si>
+    <t>seasonal trend</t>
+  </si>
+  <si>
+    <t>analysis note</t>
+  </si>
+  <si>
+    <t>confidence that trend direction is decreasing</t>
+  </si>
+  <si>
+    <t>proportion of censored observations</t>
+  </si>
+  <si>
+    <t>proportion of unique observations</t>
+  </si>
+  <si>
+    <t>number of censor levels</t>
+  </si>
+  <si>
+    <t>median value for the trend period</t>
+  </si>
+  <si>
+    <t>annual Sen slope (attribute units/year)</t>
+  </si>
+  <si>
+    <t>lower confidence interval for annual Sen slope</t>
+  </si>
+  <si>
+    <t>upper confidence interval for annual Sen slope</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percent annual change in Sen slope </t>
+  </si>
+  <si>
+    <t>site type</t>
+  </si>
+  <si>
+    <t>confidence of improving trend</t>
+  </si>
+  <si>
+    <t>NZTM.X</t>
+  </si>
+  <si>
+    <t>NZTM.Y</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>Freshwater Management Unit</t>
+  </si>
+  <si>
+    <t>Water management Area</t>
+  </si>
+  <si>
+    <t>Water management Sub-Area</t>
+  </si>
+  <si>
+    <t>units</t>
+  </si>
+  <si>
+    <t>Oroua at Londons Ford</t>
+  </si>
+  <si>
+    <t>E. coli</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>RepSite</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Manawatu District</t>
+  </si>
+  <si>
+    <t>Manawatū</t>
+  </si>
+  <si>
+    <t>Oroua</t>
+  </si>
+  <si>
+    <t>Mana_12a</t>
+  </si>
+  <si>
+    <t>E. coli/100 mL</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,228 +469,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>site name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>parameter name</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>trend period</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>seasonal trend</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>analysis note</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>confidence that trend direction is decreasing</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>proportion of censored observations</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>proportion of unique observations</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>number of censor levels</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>median value for the trend period</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>annual Sen slope (attribute units/year)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>lower confidence interval for annual Sen slope</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>upper confidence interval for annual Sen slope</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">percent annual change in Sen slope </t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>site type</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>confidence of improving trend</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>NZTM.X</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>NZTM.Y</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>District</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Freshwater Management Unit</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Water management Zone</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Water management Subzone</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Oroua at Londons Ford</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>E. coli</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>0.0225506444197494</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>0.0009311778102138</v>
+      </c>
+      <c r="G2">
         <v>0.0170940170940171</v>
       </c>
-      <c r="H2" t="n">
-        <v>0.461538461538462</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="H2">
+        <v>0.495726495726496</v>
+      </c>
+      <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2" t="n">
-        <v>96</v>
-      </c>
-      <c r="K2" t="n">
-        <v>10.7089102547016</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.257956217211037</v>
-      </c>
-      <c r="M2" t="n">
-        <v>19.0255766041846</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11.1551148486475</v>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>RepSite</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Extremely unlikely improving</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
+      <c r="J2">
+        <v>98</v>
+      </c>
+      <c r="K2">
+        <v>16.7157018441188</v>
+      </c>
+      <c r="L2">
+        <v>8.190533897941879</v>
+      </c>
+      <c r="M2">
+        <v>26.062309133187</v>
+      </c>
+      <c r="N2">
+        <v>17.0568386164478</v>
+      </c>
+      <c r="O2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2">
         <v>1840210</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>5563699</v>
       </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Manawatu District</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Manawatū</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>Oroua</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>Mana_12a</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>E. coli/100 mL</t>
-        </is>
+      <c r="S2" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" t="s">
+        <v>30</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
+++ b/trend_results/Contact_Recreation/OrouaatLondonsFord_136980a86b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>site name</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>RepSite</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
   </si>
   <si>
     <t>Exceptionally unlikely improving</t>
@@ -470,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,31 +567,31 @@
         <v>25</v>
       </c>
       <c r="F2">
-        <v>0.0009311778102138</v>
+        <v>0.823697987823508</v>
       </c>
       <c r="G2">
-        <v>0.0170940170940171</v>
+        <v>0.008130081300813</v>
       </c>
       <c r="H2">
-        <v>0.495726495726496</v>
+        <v>0.552845528455285</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="K2">
-        <v>16.7157018441188</v>
+        <v>-5.02407152682256</v>
       </c>
       <c r="L2">
-        <v>8.190533897941879</v>
+        <v>-14.6862423661978</v>
       </c>
       <c r="M2">
-        <v>26.062309133187</v>
+        <v>4.02025456789496</v>
       </c>
       <c r="N2">
-        <v>17.0568386164478</v>
+        <v>-4.56733775165687</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -603,19 +606,90 @@
         <v>5563699</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>0.008810316178053499</v>
+      </c>
+      <c r="G3">
+        <v>0.0187793427230047</v>
+      </c>
+      <c r="H3">
+        <v>0.446009389671362</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>97</v>
+      </c>
+      <c r="K3">
+        <v>5.04393753260387</v>
+      </c>
+      <c r="L3">
+        <v>1.10402164082543</v>
+      </c>
+      <c r="M3">
+        <v>8.463141700772571</v>
+      </c>
+      <c r="N3">
+        <v>5.19993560062254</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="T2" t="s">
+      <c r="Q3">
+        <v>1840210</v>
+      </c>
+      <c r="R3">
+        <v>5563699</v>
+      </c>
+      <c r="S3" t="s">
         <v>29</v>
       </c>
-      <c r="U2" t="s">
+      <c r="T3" t="s">
         <v>30</v>
       </c>
-      <c r="V2" t="s">
+      <c r="U3" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="s">
+      <c r="V3" t="s">
         <v>32</v>
+      </c>
+      <c r="W3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
